--- a/trunk/SEP/Team Member Evaluation/ThanhGiang_Evaluation.xlsx
+++ b/trunk/SEP/Team Member Evaluation/ThanhGiang_Evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Student ID</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Làm việc siêng năng, hăng hái. Có tinh thần, trách nhiệm cao trong công việc. Giúp đỡ mọi người trong những lúc khó khăn trong công việc nhóm</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -137,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -235,11 +247,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -256,9 +320,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -271,11 +332,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,114 +657,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4">
+        <v>95</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/trunk/SEP/Team Member Evaluation/ThanhGiang_Evaluation.xlsx
+++ b/trunk/SEP/Team Member Evaluation/ThanhGiang_Evaluation.xlsx
@@ -660,7 +660,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>24</v>
